--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>0.9115570931335377</v>
+        <v>0.03005697979266667</v>
       </c>
       <c r="R2">
-        <v>0.9115570931335377</v>
+        <v>0.270512818134</v>
       </c>
       <c r="S2">
-        <v>0.0008310869754261801</v>
+        <v>1.925375394273279E-05</v>
       </c>
       <c r="T2">
-        <v>0.0008310869754261801</v>
+        <v>1.925375394273278E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>15.33094459069124</v>
+        <v>0.2654266295373333</v>
       </c>
       <c r="R3">
-        <v>15.33094459069124</v>
+        <v>2.388839665836</v>
       </c>
       <c r="S3">
-        <v>0.01397756483524769</v>
+        <v>0.0001700256995284523</v>
       </c>
       <c r="T3">
-        <v>0.01397756483524769</v>
+        <v>0.0001700256995284523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J4">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>1.514302549574382</v>
+        <v>0.05348220546066667</v>
       </c>
       <c r="R4">
-        <v>1.514302549574382</v>
+        <v>0.481339849146</v>
       </c>
       <c r="S4">
-        <v>0.001380623479632736</v>
+        <v>3.425937107977798E-05</v>
       </c>
       <c r="T4">
-        <v>0.001380623479632736</v>
+        <v>3.425937107977797E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H5">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I5">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J5">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>0.788601843221335</v>
+        <v>0.019747952432</v>
       </c>
       <c r="R5">
-        <v>0.788601843221335</v>
+        <v>0.177731571888</v>
       </c>
       <c r="S5">
-        <v>0.0007189859259888598</v>
+        <v>1.265004733081287E-05</v>
       </c>
       <c r="T5">
-        <v>0.0007189859259888598</v>
+        <v>1.265004733081287E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,72 +776,72 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H6">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I6">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J6">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>11.42231089607529</v>
+        <v>0.01778592855866667</v>
       </c>
       <c r="R6">
-        <v>11.42231089607529</v>
+        <v>0.160073357028</v>
       </c>
       <c r="S6">
-        <v>0.01041397613655128</v>
+        <v>1.139322361973116E-05</v>
       </c>
       <c r="T6">
-        <v>0.01041397613655128</v>
+        <v>1.139322361973115E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>9.98925018056247</v>
+        <v>0.021814</v>
       </c>
       <c r="H7">
-        <v>9.98925018056247</v>
+        <v>0.065442</v>
       </c>
       <c r="I7">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J7">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>7.179681965338496</v>
+        <v>0.216824572172</v>
       </c>
       <c r="R7">
-        <v>7.179681965338496</v>
+        <v>1.951421149548</v>
       </c>
       <c r="S7">
-        <v>0.006545876516174443</v>
+        <v>0.0001388924299824874</v>
       </c>
       <c r="T7">
-        <v>0.006545876516174443</v>
+        <v>0.0001388924299824874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H8">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J8">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>120.750863789576</v>
+        <v>1.858560912448111</v>
       </c>
       <c r="R8">
-        <v>120.750863789576</v>
+        <v>16.727048212033</v>
       </c>
       <c r="S8">
-        <v>0.1100912613405292</v>
+        <v>0.001190547910758071</v>
       </c>
       <c r="T8">
-        <v>0.1100912613405292</v>
+        <v>0.001190547910758071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H9">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J9">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>11.92707597488091</v>
+        <v>16.41254584405355</v>
       </c>
       <c r="R9">
-        <v>11.92707597488091</v>
+        <v>147.712912596482</v>
       </c>
       <c r="S9">
-        <v>0.01087418174057247</v>
+        <v>0.01051346879942766</v>
       </c>
       <c r="T9">
-        <v>0.01087418174057247</v>
+        <v>0.01051346879942766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H10">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I10">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J10">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>6.211251576295373</v>
+        <v>3.307050051814111</v>
       </c>
       <c r="R10">
-        <v>6.211251576295373</v>
+        <v>29.763450466327</v>
       </c>
       <c r="S10">
-        <v>0.005662936885729658</v>
+        <v>0.002118414039372833</v>
       </c>
       <c r="T10">
-        <v>0.005662936885729658</v>
+        <v>0.002118414039372832</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H11">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I11">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J11">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>9.00621724652609</v>
+        <v>0.905288</v>
       </c>
       <c r="N11">
-        <v>9.00621724652609</v>
+        <v>2.715864</v>
       </c>
       <c r="O11">
-        <v>0.3811538565477776</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P11">
-        <v>0.3811538565477776</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q11">
-        <v>89.96535725604558</v>
+        <v>1.221106469917333</v>
       </c>
       <c r="R11">
-        <v>89.96535725604558</v>
+        <v>10.989958229256</v>
       </c>
       <c r="S11">
-        <v>0.08202342696718992</v>
+        <v>0.0007822104440248376</v>
       </c>
       <c r="T11">
-        <v>0.08202342696718992</v>
+        <v>0.0007822104440248373</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H12">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I12">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J12">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.718740829948282</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N12">
-        <v>0.718740829948282</v>
+        <v>2.446034</v>
       </c>
       <c r="O12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q12">
-        <v>25.27195449560788</v>
+        <v>1.099785535298444</v>
       </c>
       <c r="R12">
-        <v>25.27195449560788</v>
+        <v>9.898069817685998</v>
       </c>
       <c r="S12">
-        <v>0.0230410057505701</v>
+        <v>0.000704495269733628</v>
       </c>
       <c r="T12">
-        <v>0.0230410057505701</v>
+        <v>0.0007044952697336277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H13">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I13">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J13">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0880808476034</v>
+        <v>9.939698</v>
       </c>
       <c r="N13">
-        <v>12.0880808476034</v>
+        <v>29.819094</v>
       </c>
       <c r="O13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q13">
-        <v>425.0341936770785</v>
+        <v>13.40725773104733</v>
       </c>
       <c r="R13">
-        <v>425.0341936770785</v>
+        <v>120.665319579426</v>
       </c>
       <c r="S13">
-        <v>0.3875131740366379</v>
+        <v>0.00858835595529024</v>
       </c>
       <c r="T13">
-        <v>0.3875131740366379</v>
+        <v>0.008588355955290236</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.1614287690131</v>
+        <v>18.462627</v>
       </c>
       <c r="H14">
-        <v>35.1614287690131</v>
+        <v>55.387881</v>
       </c>
       <c r="I14">
-        <v>0.7574800791969577</v>
+        <v>0.3270988818654527</v>
       </c>
       <c r="J14">
-        <v>0.7574800791969577</v>
+        <v>0.3270988818654527</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1939911163792</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N14">
-        <v>1.1939911163792</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O14">
-        <v>0.05053112824557491</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P14">
-        <v>0.05053112824557491</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q14">
-        <v>41.98243358940167</v>
+        <v>25.43920448604301</v>
       </c>
       <c r="R14">
-        <v>41.98243358940167</v>
+        <v>228.952840374387</v>
       </c>
       <c r="S14">
-        <v>0.03827632302536971</v>
+        <v>0.01629572189394218</v>
       </c>
       <c r="T14">
-        <v>0.03827632302536971</v>
+        <v>0.01629572189394218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.1614287690131</v>
+        <v>18.462627</v>
       </c>
       <c r="H15">
-        <v>35.1614287690131</v>
+        <v>55.387881</v>
       </c>
       <c r="I15">
-        <v>0.7574800791969577</v>
+        <v>0.3270988818654527</v>
       </c>
       <c r="J15">
-        <v>0.7574800791969577</v>
+        <v>0.3270988818654527</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6217935744948609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N15">
-        <v>0.6217935744948609</v>
+        <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.02631504575206202</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P15">
-        <v>0.02631504575206202</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q15">
-        <v>21.86315047863109</v>
+        <v>224.648063492022</v>
       </c>
       <c r="R15">
-        <v>21.86315047863109</v>
+        <v>2021.832571428198</v>
       </c>
       <c r="S15">
-        <v>0.0199331229403435</v>
+        <v>0.1439039640051293</v>
       </c>
       <c r="T15">
-        <v>0.0199331229403435</v>
+        <v>0.1439039640051293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.462627</v>
+      </c>
+      <c r="H16">
+        <v>55.387881</v>
+      </c>
+      <c r="I16">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J16">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.355213</v>
+      </c>
+      <c r="O16">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P16">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q16">
+        <v>45.26551804151701</v>
+      </c>
+      <c r="R16">
+        <v>407.389662373653</v>
+      </c>
+      <c r="S16">
+        <v>0.02899596541214487</v>
+      </c>
+      <c r="T16">
+        <v>0.02899596541214486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.462627</v>
+      </c>
+      <c r="H17">
+        <v>55.387881</v>
+      </c>
+      <c r="I17">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J17">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.905288</v>
+      </c>
+      <c r="N17">
+        <v>2.715864</v>
+      </c>
+      <c r="O17">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P17">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q17">
+        <v>16.713994671576</v>
+      </c>
+      <c r="R17">
+        <v>150.425952044184</v>
+      </c>
+      <c r="S17">
+        <v>0.01070656942335856</v>
+      </c>
+      <c r="T17">
+        <v>0.01070656942335856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="H16">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="I16">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="J16">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="N16">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="O16">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="P16">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="Q16">
-        <v>316.6714661919844</v>
-      </c>
-      <c r="R16">
-        <v>316.6714661919844</v>
-      </c>
-      <c r="S16">
-        <v>0.2887164534440364</v>
-      </c>
-      <c r="T16">
-        <v>0.2887164534440364</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.462627</v>
+      </c>
+      <c r="H18">
+        <v>55.387881</v>
+      </c>
+      <c r="I18">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J18">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.446034</v>
+      </c>
+      <c r="O18">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P18">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q18">
+        <v>15.053404457106</v>
+      </c>
+      <c r="R18">
+        <v>135.480640113954</v>
+      </c>
+      <c r="S18">
+        <v>0.009642836619541862</v>
+      </c>
+      <c r="T18">
+        <v>0.009642836619541861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.462627</v>
+      </c>
+      <c r="H19">
+        <v>55.387881</v>
+      </c>
+      <c r="I19">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J19">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.939698</v>
+      </c>
+      <c r="N19">
+        <v>29.819094</v>
+      </c>
+      <c r="O19">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P19">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q19">
+        <v>183.512936666646</v>
+      </c>
+      <c r="R19">
+        <v>1651.616429999814</v>
+      </c>
+      <c r="S19">
+        <v>0.1175538245113359</v>
+      </c>
+      <c r="T19">
+        <v>0.1175538245113359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H20">
+        <v>107.809532</v>
+      </c>
+      <c r="I20">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J20">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P20">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q20">
+        <v>49.51604359250712</v>
+      </c>
+      <c r="R20">
+        <v>445.6443923325641</v>
+      </c>
+      <c r="S20">
+        <v>0.03171874639847768</v>
+      </c>
+      <c r="T20">
+        <v>0.03171874639847767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H21">
+        <v>107.809532</v>
+      </c>
+      <c r="I21">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J21">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N21">
+        <v>36.503158</v>
+      </c>
+      <c r="O21">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P21">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q21">
+        <v>437.2653756113396</v>
+      </c>
+      <c r="R21">
+        <v>3935.388380502056</v>
+      </c>
+      <c r="S21">
+        <v>0.2801013278037814</v>
+      </c>
+      <c r="T21">
+        <v>0.2801013278037813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H22">
+        <v>107.809532</v>
+      </c>
+      <c r="I22">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J22">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.355213</v>
+      </c>
+      <c r="O22">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P22">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q22">
+        <v>88.10689681003512</v>
+      </c>
+      <c r="R22">
+        <v>792.962071290316</v>
+      </c>
+      <c r="S22">
+        <v>0.05643908747784602</v>
+      </c>
+      <c r="T22">
+        <v>0.056439087477846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H23">
+        <v>107.809532</v>
+      </c>
+      <c r="I23">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J23">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.905288</v>
+      </c>
+      <c r="N23">
+        <v>2.715864</v>
+      </c>
+      <c r="O23">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P23">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q23">
+        <v>32.53289186840534</v>
+      </c>
+      <c r="R23">
+        <v>292.796026815648</v>
+      </c>
+      <c r="S23">
+        <v>0.02083976165937448</v>
+      </c>
+      <c r="T23">
+        <v>0.02083976165937448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H24">
+        <v>107.809532</v>
+      </c>
+      <c r="I24">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J24">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.446034</v>
+      </c>
+      <c r="O24">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P24">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q24">
+        <v>29.30064231067645</v>
+      </c>
+      <c r="R24">
+        <v>263.705780796088</v>
+      </c>
+      <c r="S24">
+        <v>0.01876926295673362</v>
+      </c>
+      <c r="T24">
+        <v>0.01876926295673362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H25">
+        <v>107.809532</v>
+      </c>
+      <c r="I25">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J25">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.939698</v>
+      </c>
+      <c r="N25">
+        <v>29.819094</v>
+      </c>
+      <c r="O25">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P25">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q25">
+        <v>357.1980632004453</v>
+      </c>
+      <c r="R25">
+        <v>3214.782568804008</v>
+      </c>
+      <c r="S25">
+        <v>0.2288121982022972</v>
+      </c>
+      <c r="T25">
+        <v>0.2288121982022972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.178527</v>
+      </c>
+      <c r="H26">
+        <v>0.535581</v>
+      </c>
+      <c r="I26">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J26">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P26">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q26">
+        <v>0.245988009143</v>
+      </c>
+      <c r="R26">
+        <v>2.213892082287</v>
+      </c>
+      <c r="S26">
+        <v>0.000157573802609987</v>
+      </c>
+      <c r="T26">
+        <v>0.0001575738026099869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.178527</v>
+      </c>
+      <c r="H27">
+        <v>0.535581</v>
+      </c>
+      <c r="I27">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J27">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N27">
+        <v>36.503158</v>
+      </c>
+      <c r="O27">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P27">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q27">
+        <v>2.172266429422</v>
+      </c>
+      <c r="R27">
+        <v>19.550397864798</v>
+      </c>
+      <c r="S27">
+        <v>0.001391499865211149</v>
+      </c>
+      <c r="T27">
+        <v>0.001391499865211148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.178527</v>
+      </c>
+      <c r="H28">
+        <v>0.535581</v>
+      </c>
+      <c r="I28">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J28">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N28">
+        <v>7.355213</v>
+      </c>
+      <c r="O28">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P28">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q28">
+        <v>0.437701370417</v>
+      </c>
+      <c r="R28">
+        <v>3.939312333753</v>
+      </c>
+      <c r="S28">
+        <v>0.0002803806152360651</v>
+      </c>
+      <c r="T28">
+        <v>0.000280380615236065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.178527</v>
+      </c>
+      <c r="H29">
+        <v>0.535581</v>
+      </c>
+      <c r="I29">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J29">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.905288</v>
+      </c>
+      <c r="N29">
+        <v>2.715864</v>
+      </c>
+      <c r="O29">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P29">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q29">
+        <v>0.161618350776</v>
+      </c>
+      <c r="R29">
+        <v>1.454565156984</v>
+      </c>
+      <c r="S29">
+        <v>0.0001035286971590735</v>
+      </c>
+      <c r="T29">
+        <v>0.0001035286971590735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.178527</v>
+      </c>
+      <c r="H30">
+        <v>0.535581</v>
+      </c>
+      <c r="I30">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J30">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N30">
+        <v>2.446034</v>
+      </c>
+      <c r="O30">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P30">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q30">
+        <v>0.145561037306</v>
+      </c>
+      <c r="R30">
+        <v>1.310049335754</v>
+      </c>
+      <c r="S30">
+        <v>9.324278138625396E-05</v>
+      </c>
+      <c r="T30">
+        <v>9.324278138625395E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.178527</v>
+      </c>
+      <c r="H31">
+        <v>0.535581</v>
+      </c>
+      <c r="I31">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J31">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.939698</v>
+      </c>
+      <c r="N31">
+        <v>29.819094</v>
+      </c>
+      <c r="O31">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P31">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q31">
+        <v>1.774504464846</v>
+      </c>
+      <c r="R31">
+        <v>15.970540183614</v>
+      </c>
+      <c r="S31">
+        <v>0.001136703440335726</v>
+      </c>
+      <c r="T31">
+        <v>0.001136703440335726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H32">
+        <v>1.48568</v>
+      </c>
+      <c r="I32">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J32">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P32">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q32">
+        <v>0.6823607734844447</v>
+      </c>
+      <c r="R32">
+        <v>6.141246961360001</v>
+      </c>
+      <c r="S32">
+        <v>0.0004371033458274387</v>
+      </c>
+      <c r="T32">
+        <v>0.0004371033458274386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H33">
+        <v>1.48568</v>
+      </c>
+      <c r="I33">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J33">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N33">
+        <v>36.503158</v>
+      </c>
+      <c r="O33">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P33">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q33">
+        <v>6.025779086382222</v>
+      </c>
+      <c r="R33">
+        <v>54.23201177744</v>
+      </c>
+      <c r="S33">
+        <v>0.00385996426263609</v>
+      </c>
+      <c r="T33">
+        <v>0.003859964262636089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H34">
+        <v>1.48568</v>
+      </c>
+      <c r="I34">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J34">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N34">
+        <v>7.355213</v>
+      </c>
+      <c r="O34">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P34">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q34">
+        <v>1.214165872204445</v>
+      </c>
+      <c r="R34">
+        <v>10.92749284984</v>
+      </c>
+      <c r="S34">
+        <v>0.0007777644696953723</v>
+      </c>
+      <c r="T34">
+        <v>0.000777764469695372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H35">
+        <v>1.48568</v>
+      </c>
+      <c r="I35">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J35">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.905288</v>
+      </c>
+      <c r="N35">
+        <v>2.715864</v>
+      </c>
+      <c r="O35">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P35">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q35">
+        <v>0.4483227586133334</v>
+      </c>
+      <c r="R35">
+        <v>4.03490482752</v>
+      </c>
+      <c r="S35">
+        <v>0.0002871844124330257</v>
+      </c>
+      <c r="T35">
+        <v>0.0002871844124330257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H36">
+        <v>1.48568</v>
+      </c>
+      <c r="I36">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J36">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.446034</v>
+      </c>
+      <c r="O36">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P36">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q36">
+        <v>0.4037804214577778</v>
+      </c>
+      <c r="R36">
+        <v>3.63402379312</v>
+      </c>
+      <c r="S36">
+        <v>0.0002586516987158428</v>
+      </c>
+      <c r="T36">
+        <v>0.0002586516987158428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H37">
+        <v>1.48568</v>
+      </c>
+      <c r="I37">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J37">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.939698</v>
+      </c>
+      <c r="N37">
+        <v>29.819094</v>
+      </c>
+      <c r="O37">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P37">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q37">
+        <v>4.922403508213334</v>
+      </c>
+      <c r="R37">
+        <v>44.30163157392001</v>
+      </c>
+      <c r="S37">
+        <v>0.003153169300699579</v>
+      </c>
+      <c r="T37">
+        <v>0.003153169300699579</v>
       </c>
     </row>
   </sheetData>
